--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mucha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mucha\PycharmProjects\sentimenAnalysisPakAndy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C80A63-EE77-451A-9B3A-C185BFB463AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5969CE-34C6-4683-AF93-2408F87FA758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67DB0437-C74C-4213-8FA9-3BF9FE29510F}"/>
+    <workbookView xWindow="1404" yWindow="1704" windowWidth="21636" windowHeight="11256" xr2:uid="{67DB0437-C74C-4213-8FA9-3BF9FE29510F}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
   <si>
     <t>text</t>
   </si>
@@ -361,6 +361,162 @@
   </si>
   <si>
     <t>hanya tinggal puing" skrg sdh tdk ada lagi pengunjung</t>
+  </si>
+  <si>
+    <t>Pantai Jali Kalisangka biasanya menjadi alternatif wisata untuk wisatawan lokal Kangean.</t>
+  </si>
+  <si>
+    <t>Kalau nyewa mobil persyaratannya apa saja kak</t>
+  </si>
+  <si>
+    <t>Kotor bgt, apalagi di sela2 batu2annya. Kalo nongkrong sore2 disini enak jg sih sambil makan lontong kupang</t>
+  </si>
+  <si>
+    <t>Parkir mobil 10 ribu Es degan 25 ribu</t>
+  </si>
+  <si>
+    <t>Kotor banget banyak sampah nya di batu batu nya</t>
+  </si>
+  <si>
+    <t>Pantai Sangat Kotor, Tidak Ada Yang Istimewa</t>
+  </si>
+  <si>
+    <t>Datang jam 7 lebih di pintu masuk selatan.. Setelah menunggu lama petugasnya bilang kalau pintu selatan tutup suruh ke pintu utara..padahal di depan gak di kasih tau sebelum nya..yang ada petugasnya cengingisan gak jelas</t>
+  </si>
+  <si>
+    <t>Bagus.. Cuma pantainya kurang bersih</t>
+  </si>
+  <si>
+    <t>Tolong diperhatikan penjaga toilet nya pak suruh yang ramah kita disitu bayar jangan macam preman</t>
+  </si>
+  <si>
+    <t>Penataan lokasi penjual oleh oleh dan jualan makan minum sudah bagus cuma yg kurang diperhatikan kurangnya Toilet dan kotor jorok sekali mohon perhatianya Terima kasih</t>
+  </si>
+  <si>
+    <t>Harga makanan mahal dan tidak sesuai dengan menu dan harganya dari penjual.dalam hati dia Goblok gk bisa hitung atau mang dbuat ben laris pembeli. Pokok gak recomended untuk kulinernya</t>
+  </si>
+  <si>
+    <t>Tidak terawat, banyak perlu pembenahan.</t>
+  </si>
+  <si>
+    <t>Waktu ke sana pantai sedang surut dan berlumpur. Makan kupang di warung tepi pantai banyak lalatnya.</t>
+  </si>
+  <si>
+    <t>Pantai yg sangat membingungkan ikutin map juga ga ada pantainya, tanya juga ga ada yg tau wealahhhhh jauh jauh zonk</t>
+  </si>
+  <si>
+    <t>petugasnya jutek, bikin pengunjung ga betah di awal</t>
+  </si>
+  <si>
+    <t>Pantainya bau amis sama pasirnya kotor gak puas saya berkunjung</t>
+  </si>
+  <si>
+    <t>Apa sudah dibuka kembali .sya sebelom lebran kesana kok tutup</t>
+  </si>
+  <si>
+    <t>Sayang sekali tidak ada keterangan jika lokasi ini tutup</t>
+  </si>
+  <si>
+    <t>Penjaga pintu masuknya jutek</t>
+  </si>
+  <si>
+    <t>Perlu perawatan dan pengembangan</t>
+  </si>
+  <si>
+    <t>Panas</t>
+  </si>
+  <si>
+    <t>Mohon di perhatikan kebersihan pantai.. ,karna byk anak bermain..</t>
+  </si>
+  <si>
+    <t>Tempat wisata ini mungkin sudah lam, tapi kelihatan nya kurang dirawat dan pengunjung pun kurang peduli dengan lingkungan, sehingga lingkungan kelihatan sangat kumuh dan kotor. Apalagi waktu saya berkunjung kesini air laut sedang surut. Jadi lengkaplah situasi yang kurang menyejukkan, walaupun pengunjung tetap saja banyak.</t>
+  </si>
+  <si>
+    <t>Pantai kurang bersih kurang terawat airpun nggak indah</t>
+  </si>
+  <si>
+    <t>Ndak ada tempat buat duduk santai.</t>
+  </si>
+  <si>
+    <t>Bintang dua aja karena menurut ku kurang menarik</t>
+  </si>
+  <si>
+    <t>aga amis baunya</t>
+  </si>
+  <si>
+    <t>Malem banget kesananya. Jadi pas tutup. Ntar kapan2 kalo maen kesana pas buka dikasih review lagi deh ya. Tempatnya jauh banget dr pusat kota. Tapi lumayan ngembangin daerah yg pinggiran kota.</t>
+  </si>
+  <si>
+    <t>Untuk jadwal jam buka sudah tidak ter atur sama sekali. Dan bukan tempat wisata lagi. Tapi sudah menjadi tempat berkendara umum</t>
+  </si>
+  <si>
+    <t>Masak ku baru sampai jam 8.30 sudah disuruh meninggalkan tempat, dan ada nya cuma Sabtu malam Minggu ,</t>
+  </si>
+  <si>
+    <t>Tidak menarik perhatian, hanya aksesoris saja</t>
+  </si>
+  <si>
+    <t>Ga pernah di buka, selalu tutup</t>
+  </si>
+  <si>
+    <t>Udah jauh-jauh, tapi tutup -_-</t>
+  </si>
+  <si>
+    <t>Rusak</t>
+  </si>
+  <si>
+    <t>fasilitas minim</t>
+  </si>
+  <si>
+    <t>Kenapa gk dibuka ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di jadwal sampe jam 4, tapi kurang 15 menit uda tutup dan gaboleh masuk. Mantap moga2 ga sepi lagi kena pengelolaan kaya gini </t>
+  </si>
+  <si>
+    <t>Sangat mengecewakan tidak ada wahana khusus anak2 yang ada hanya kuliner</t>
+  </si>
+  <si>
+    <t>Air laut kotor warna coklat Pedagang tidak ramah harga makanan / minuman mahal²</t>
+  </si>
+  <si>
+    <t>Tidak direkomendasikan, kotor</t>
+  </si>
+  <si>
+    <t>Pantainya kaya kubangan</t>
+  </si>
+  <si>
+    <t>Tidak sesuai gambar.. masuk dan bayar 10rb/orang</t>
+  </si>
+  <si>
+    <t>Tidak ada lagi hal-hal rekreasi</t>
+  </si>
+  <si>
+    <t>Tidak ada yang spesial</t>
+  </si>
+  <si>
+    <t>Tempat nya gak jelas kapan buka kapan tutup nya</t>
+  </si>
+  <si>
+    <t>Tempat parkirnya susah bngt</t>
+  </si>
+  <si>
+    <t>Kok tutup</t>
+  </si>
+  <si>
+    <t>Kurang tepat waktu</t>
+  </si>
+  <si>
+    <t>Belum sesuai ekspektasi</t>
+  </si>
+  <si>
+    <t>Kurang menarik</t>
+  </si>
+  <si>
+    <t>sepi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotor tempatnya so bad </t>
   </si>
 </sst>
 </file>
@@ -728,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5DAB0-354B-4E2E-9A48-EA13F931F2C7}">
-  <dimension ref="B1:C114"/>
+  <dimension ref="B1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1648,6 +1804,446 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
